--- a/codebooks/codebook-dependent-studies.xlsx
+++ b/codebooks/codebook-dependent-studies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="codebook-description" sheetId="4" r:id="rId1"/>
@@ -3695,8 +3695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI415"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView topLeftCell="A37" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20136,10 +20136,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20735,6 +20735,24 @@
         <v>0</v>
       </c>
     </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <f>SUM(B2:B34)</f>
+        <v>248</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ref="C35:E35" si="0">SUM(C2:C34)</f>
+        <v>47</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>182</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
